--- a/Code/Results/Cases/Case_8_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.22930631408255</v>
+        <v>1.090548387409513</v>
       </c>
       <c r="C2">
-        <v>0.1735194593203744</v>
+        <v>0.2180814918826428</v>
       </c>
       <c r="D2">
-        <v>0.07373435204880785</v>
+        <v>0.06133133398711621</v>
       </c>
       <c r="E2">
-        <v>0.02019527141534017</v>
+        <v>0.02611884110261009</v>
       </c>
       <c r="F2">
-        <v>1.470137022712265</v>
+        <v>1.193233853175258</v>
       </c>
       <c r="G2">
-        <v>0.0008388431119592215</v>
+        <v>0.03470557262782448</v>
       </c>
       <c r="H2">
-        <v>0.01537771116025827</v>
+        <v>0.008702194524572188</v>
       </c>
       <c r="I2">
-        <v>0.01924890491961939</v>
+        <v>0.009271883172551121</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.014777058483666</v>
+        <v>0.7850000623195115</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3266014521184459</v>
       </c>
       <c r="M2">
-        <v>1.270773215422565</v>
+        <v>0.2633417981117638</v>
       </c>
       <c r="N2">
-        <v>0.1623944023297454</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2577334701287057</v>
+        <v>1.221808558131556</v>
       </c>
       <c r="P2">
-        <v>1.708002762929638</v>
+        <v>0.182091680644092</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2419829912642975</v>
+      </c>
+      <c r="R2">
+        <v>1.387963486132506</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.075356775664488</v>
+        <v>0.9553848405942347</v>
       </c>
       <c r="C3">
-        <v>0.1492576064547961</v>
+        <v>0.1880103665482551</v>
       </c>
       <c r="D3">
-        <v>0.07254063400144517</v>
+        <v>0.05872295719096954</v>
       </c>
       <c r="E3">
-        <v>0.01780920783473228</v>
+        <v>0.02422324445547996</v>
       </c>
       <c r="F3">
-        <v>1.377639598400194</v>
+        <v>1.117798798669824</v>
       </c>
       <c r="G3">
-        <v>0.0008430245518033075</v>
+        <v>0.04160704476622734</v>
       </c>
       <c r="H3">
-        <v>0.01933857078117907</v>
+        <v>0.0111849371090334</v>
       </c>
       <c r="I3">
-        <v>0.02409569529830113</v>
+        <v>0.01185073322443753</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9705740052740737</v>
+        <v>0.7550466231227162</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3226456936101556</v>
       </c>
       <c r="M3">
-        <v>1.107698612278938</v>
+        <v>0.2464433496592839</v>
       </c>
       <c r="N3">
-        <v>0.14312793441092</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2260595352637829</v>
+        <v>1.064996889475253</v>
       </c>
       <c r="P3">
-        <v>1.713096210900417</v>
+        <v>0.1619911073561937</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2126015740113232</v>
+      </c>
+      <c r="R3">
+        <v>1.403167679879076</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9807089943900849</v>
+        <v>0.8718921786294231</v>
       </c>
       <c r="C4">
-        <v>0.134680639134416</v>
+        <v>0.169805656412791</v>
       </c>
       <c r="D4">
-        <v>0.07176665328392851</v>
+        <v>0.05709760203443537</v>
       </c>
       <c r="E4">
-        <v>0.01636175752660218</v>
+        <v>0.02305248082166855</v>
       </c>
       <c r="F4">
-        <v>1.32139385495563</v>
+        <v>1.071505419928684</v>
       </c>
       <c r="G4">
-        <v>0.0008456820897452255</v>
+        <v>0.04631481526887415</v>
       </c>
       <c r="H4">
-        <v>0.02209076774788998</v>
+        <v>0.01292686091671014</v>
       </c>
       <c r="I4">
-        <v>0.0274949006405989</v>
+        <v>0.01370322062986373</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9434930515860245</v>
+        <v>0.7364433483281445</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3199118863558326</v>
       </c>
       <c r="M4">
-        <v>1.007884698677628</v>
+        <v>0.236738128991739</v>
       </c>
       <c r="N4">
-        <v>0.1313290799591655</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2066004097561951</v>
+        <v>0.9686052743579694</v>
       </c>
       <c r="P4">
-        <v>1.716324040171557</v>
+        <v>0.1496766689924698</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1945033360821427</v>
+      </c>
+      <c r="R4">
+        <v>1.412439729869234</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9411171011209092</v>
+        <v>0.8368551272008631</v>
       </c>
       <c r="C5">
-        <v>0.1290416582440912</v>
+        <v>0.162685784254009</v>
       </c>
       <c r="D5">
-        <v>0.07144688563429469</v>
+        <v>0.05645143694459165</v>
       </c>
       <c r="E5">
-        <v>0.01576259253737877</v>
+        <v>0.02256180426237275</v>
       </c>
       <c r="F5">
-        <v>1.297248124770135</v>
+        <v>1.051461238391937</v>
       </c>
       <c r="G5">
-        <v>0.0008467963899044806</v>
+        <v>0.04836305789540174</v>
       </c>
       <c r="H5">
-        <v>0.02329923016225155</v>
+        <v>0.01369551970760924</v>
       </c>
       <c r="I5">
-        <v>0.02908482337894913</v>
+        <v>0.01462796049163284</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9313757142133881</v>
+        <v>0.7278954262823731</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.318325785065511</v>
       </c>
       <c r="M5">
-        <v>0.966840037655885</v>
+        <v>0.2326629054326368</v>
       </c>
       <c r="N5">
-        <v>0.1265758859312172</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1985484259676156</v>
+        <v>0.9288867532989968</v>
       </c>
       <c r="P5">
-        <v>1.716362373764554</v>
+        <v>0.1447113780774103</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1870043036969449</v>
+      </c>
+      <c r="R5">
+        <v>1.415197934754261</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9333381621205774</v>
+        <v>0.8299487673749297</v>
       </c>
       <c r="C6">
-        <v>0.1283898821584444</v>
+        <v>0.1618006289424443</v>
       </c>
       <c r="D6">
-        <v>0.0714007916307704</v>
+        <v>0.05637151475155378</v>
       </c>
       <c r="E6">
-        <v>0.0156478184667348</v>
+        <v>0.02246635592499668</v>
       </c>
       <c r="F6">
-        <v>1.291595518428224</v>
+        <v>1.046692917965089</v>
       </c>
       <c r="G6">
-        <v>0.0008469929756562297</v>
+        <v>0.04872906537897514</v>
       </c>
       <c r="H6">
-        <v>0.02351594772740029</v>
+        <v>0.01383372997875637</v>
       </c>
       <c r="I6">
-        <v>0.02948697985277704</v>
+        <v>0.01492193159276045</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9280293154315871</v>
+        <v>0.7253588240001889</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3175758652769858</v>
       </c>
       <c r="M6">
-        <v>0.9594982297503236</v>
+        <v>0.2316441630518149</v>
       </c>
       <c r="N6">
-        <v>0.1258472876281118</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1970673876925808</v>
+        <v>0.9217975014368278</v>
       </c>
       <c r="P6">
-        <v>1.714784262332998</v>
+        <v>0.1439454793927766</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1856257838190345</v>
+      </c>
+      <c r="R6">
+        <v>1.414432690570429</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9768797322419402</v>
+        <v>0.8658494729956772</v>
       </c>
       <c r="C7">
-        <v>0.1353712794127517</v>
+        <v>0.1685326690874973</v>
       </c>
       <c r="D7">
-        <v>0.07178430625076437</v>
+        <v>0.05732685665734394</v>
       </c>
       <c r="E7">
-        <v>0.01631124739592948</v>
+        <v>0.02308758618312456</v>
       </c>
       <c r="F7">
-        <v>1.316557447166261</v>
+        <v>1.05972062065976</v>
       </c>
       <c r="G7">
-        <v>0.0008457243926415348</v>
+        <v>0.04697318817121143</v>
       </c>
       <c r="H7">
-        <v>0.02213654964166389</v>
+        <v>0.01298590518592024</v>
       </c>
       <c r="I7">
-        <v>0.02785735804705602</v>
+        <v>0.01410817292490751</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9396826384524388</v>
+        <v>0.7288720723113542</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.316718869364145</v>
       </c>
       <c r="M7">
-        <v>1.005877785426179</v>
+        <v>0.2342711681585072</v>
       </c>
       <c r="N7">
-        <v>0.1314303811217812</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2060981240790554</v>
+        <v>0.961552436767505</v>
       </c>
       <c r="P7">
-        <v>1.712008920456611</v>
+        <v>0.1495848107668962</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1935698556512797</v>
+      </c>
+      <c r="R7">
+        <v>1.403813003865849</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.171832979247711</v>
+        <v>1.031346022948355</v>
       </c>
       <c r="C8">
-        <v>0.1661040849595423</v>
+        <v>0.2020697089015897</v>
       </c>
       <c r="D8">
-        <v>0.07336596745612134</v>
+        <v>0.06114422491309668</v>
       </c>
       <c r="E8">
-        <v>0.01931115489043567</v>
+        <v>0.02568411781817304</v>
       </c>
       <c r="F8">
-        <v>1.4321465727988</v>
+        <v>1.137004784337847</v>
       </c>
       <c r="G8">
-        <v>0.0008403009916519009</v>
+        <v>0.03954492410725052</v>
       </c>
       <c r="H8">
-        <v>0.01670791704521712</v>
+        <v>0.009613400558693447</v>
       </c>
       <c r="I8">
-        <v>0.02123477631288662</v>
+        <v>0.0106357499832006</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9946961160927259</v>
+        <v>0.7562510346264872</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3178388264557483</v>
       </c>
       <c r="M8">
-        <v>1.212519321646823</v>
+        <v>0.2510051335915833</v>
       </c>
       <c r="N8">
-        <v>0.1559648256518145</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.246286591667662</v>
+        <v>1.14861742490541</v>
       </c>
       <c r="P8">
-        <v>1.70410398732237</v>
+        <v>0.1747526037239808</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2298042190226539</v>
+      </c>
+      <c r="R8">
+        <v>1.371922372901992</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.559606492820876</v>
+        <v>1.366879034041034</v>
       </c>
       <c r="C9">
-        <v>0.2279046720443603</v>
+        <v>0.2758229653253181</v>
       </c>
       <c r="D9">
-        <v>0.07609373279706233</v>
+        <v>0.0676852481040271</v>
       </c>
       <c r="E9">
-        <v>0.02546395869371132</v>
+        <v>0.03051762947718384</v>
       </c>
       <c r="F9">
-        <v>1.671898398611631</v>
+        <v>1.323439830087608</v>
       </c>
       <c r="G9">
-        <v>0.0008303182368644265</v>
+        <v>0.02526008711651784</v>
       </c>
       <c r="H9">
-        <v>0.008702867762947181</v>
+        <v>0.00468033272971391</v>
       </c>
       <c r="I9">
-        <v>0.01127797747581116</v>
+        <v>0.005382115171642887</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.109801235068623</v>
+        <v>0.8296383574392365</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3265736780402051</v>
       </c>
       <c r="M9">
-        <v>1.623673320448603</v>
+        <v>0.2961947450753044</v>
       </c>
       <c r="N9">
-        <v>0.2041220770574199</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3258228737309707</v>
+        <v>1.536143902780964</v>
       </c>
       <c r="P9">
-        <v>1.697137735185848</v>
+        <v>0.2247706470078583</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3028119533285363</v>
+      </c>
+      <c r="R9">
+        <v>1.333813375765637</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.830608289193265</v>
+        <v>1.58446207153861</v>
       </c>
       <c r="C10">
-        <v>0.2777418941865335</v>
+        <v>0.3215004862603337</v>
       </c>
       <c r="D10">
-        <v>0.07813485047814162</v>
+        <v>0.07436045446157991</v>
       </c>
       <c r="E10">
-        <v>0.02870771390255378</v>
+        <v>0.03321222354137898</v>
       </c>
       <c r="F10">
-        <v>1.82767270577267</v>
+        <v>1.3990530282545</v>
       </c>
       <c r="G10">
-        <v>0.0008235282888373953</v>
+        <v>0.02579715798439608</v>
       </c>
       <c r="H10">
-        <v>0.005042046658679133</v>
+        <v>0.002669923472729874</v>
       </c>
       <c r="I10">
-        <v>0.006641229571756391</v>
+        <v>0.003340200151658479</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.176648832104249</v>
+        <v>0.8447783769987041</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3180428786148894</v>
       </c>
       <c r="M10">
-        <v>1.920605802432561</v>
+        <v>0.3177992738509161</v>
       </c>
       <c r="N10">
-        <v>0.2281330350667758</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3764093668406403</v>
+        <v>1.782966765912477</v>
       </c>
       <c r="P10">
-        <v>1.670932856563624</v>
+        <v>0.2484289379407443</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3459990449018022</v>
+      </c>
+      <c r="R10">
+        <v>1.265291758277037</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.83866704597844</v>
+        <v>1.567646690778474</v>
       </c>
       <c r="C11">
-        <v>0.3178094748891738</v>
+        <v>0.3347406272159219</v>
       </c>
       <c r="D11">
-        <v>0.08216674318758521</v>
+        <v>0.08735693837996905</v>
       </c>
       <c r="E11">
-        <v>0.02216668035129365</v>
+        <v>0.0271390219389247</v>
       </c>
       <c r="F11">
-        <v>1.703026114030266</v>
+        <v>1.216150883767384</v>
       </c>
       <c r="G11">
-        <v>0.0008216212444097309</v>
+        <v>0.05944990209172119</v>
       </c>
       <c r="H11">
-        <v>0.02355202305189508</v>
+        <v>0.02142860236714839</v>
       </c>
       <c r="I11">
-        <v>0.006261658775917667</v>
+        <v>0.003703800350130848</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.061108243262773</v>
+        <v>0.7118129407493115</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2655480177205263</v>
       </c>
       <c r="M11">
-        <v>1.987481213607737</v>
+        <v>0.2718178413671382</v>
       </c>
       <c r="N11">
-        <v>0.1484630915655174</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3329931365290832</v>
+        <v>1.784355869674158</v>
       </c>
       <c r="P11">
-        <v>1.493513685660162</v>
+        <v>0.162825214646297</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.29956796105661</v>
+      </c>
+      <c r="R11">
+        <v>1.105492294948135</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.792601900980969</v>
+        <v>1.521708882152353</v>
       </c>
       <c r="C12">
-        <v>0.3404931404867</v>
+        <v>0.3422179093595616</v>
       </c>
       <c r="D12">
-        <v>0.08653784140301468</v>
+        <v>0.09787576766641592</v>
       </c>
       <c r="E12">
-        <v>0.02218061502306234</v>
+        <v>0.02652136476850542</v>
       </c>
       <c r="F12">
-        <v>1.574671356293322</v>
+        <v>1.084623709807232</v>
       </c>
       <c r="G12">
-        <v>0.0008213003937427217</v>
+        <v>0.08415008607518359</v>
       </c>
       <c r="H12">
-        <v>0.06253810327179821</v>
+        <v>0.06039389665450301</v>
       </c>
       <c r="I12">
-        <v>0.006185671847474872</v>
+        <v>0.003719215948043697</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9600061329747689</v>
+        <v>0.6233323221229909</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2332799526168223</v>
       </c>
       <c r="M12">
-        <v>1.982161179076229</v>
+        <v>0.2382555566496052</v>
       </c>
       <c r="N12">
-        <v>0.09175624418197259</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2888370037224846</v>
+        <v>1.754166171580295</v>
       </c>
       <c r="P12">
-        <v>1.370646522527039</v>
+        <v>0.1025591476113803</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2564503840478416</v>
+      </c>
+      <c r="R12">
+        <v>1.026323372672465</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.697250513126818</v>
+        <v>1.452464533298865</v>
       </c>
       <c r="C13">
-        <v>0.351971339657581</v>
+        <v>0.3524239647728109</v>
       </c>
       <c r="D13">
-        <v>0.09136244072859512</v>
+        <v>0.1046651589246608</v>
       </c>
       <c r="E13">
-        <v>0.027027155149983</v>
+        <v>0.03075621809263129</v>
       </c>
       <c r="F13">
-        <v>1.429039853988726</v>
+        <v>0.9891579271822337</v>
       </c>
       <c r="G13">
-        <v>0.0008222199309665764</v>
+        <v>0.07898434871864879</v>
       </c>
       <c r="H13">
-        <v>0.1189830998425236</v>
+        <v>0.1165630750426629</v>
       </c>
       <c r="I13">
-        <v>0.006754205532253366</v>
+        <v>0.003940690648186695</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.858598879026033</v>
+        <v>0.5625470074837295</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2129066197477236</v>
       </c>
       <c r="M13">
-        <v>1.91844519160253</v>
+        <v>0.2129013918880496</v>
       </c>
       <c r="N13">
-        <v>0.04989307622900085</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.241265366434245</v>
+        <v>1.708640260028631</v>
       </c>
       <c r="P13">
-        <v>1.275336929930042</v>
+        <v>0.05851876353604268</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2136105082287969</v>
+      </c>
+      <c r="R13">
+        <v>0.9914284274590148</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.607826478660087</v>
+        <v>1.392198118254157</v>
       </c>
       <c r="C14">
-        <v>0.3552218050583633</v>
+        <v>0.3611733282492651</v>
       </c>
       <c r="D14">
-        <v>0.09510923839769703</v>
+        <v>0.1074427029245584</v>
       </c>
       <c r="E14">
-        <v>0.03335768293127472</v>
+        <v>0.03711426395396877</v>
       </c>
       <c r="F14">
-        <v>1.3193831235467</v>
+        <v>0.9348923096532928</v>
       </c>
       <c r="G14">
-        <v>0.0008234261309159889</v>
+        <v>0.06300279883888749</v>
       </c>
       <c r="H14">
-        <v>0.1689995824076647</v>
+        <v>0.166258412538582</v>
       </c>
       <c r="I14">
-        <v>0.007580312554591018</v>
+        <v>0.004314500834401436</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7878121797354822</v>
+        <v>0.5297960934125854</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2027611327499628</v>
       </c>
       <c r="M14">
-        <v>1.847279984564807</v>
+        <v>0.1980979001503123</v>
       </c>
       <c r="N14">
-        <v>0.02966578296074829</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2070263099240783</v>
+        <v>1.668565936812968</v>
       </c>
       <c r="P14">
-        <v>1.222366894274273</v>
+        <v>0.03716579625967853</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1839364087753488</v>
+      </c>
+      <c r="R14">
+        <v>0.9820315598699327</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.57460067020088</v>
+        <v>1.370904389316252</v>
       </c>
       <c r="C15">
-        <v>0.3538662996381277</v>
+        <v>0.3639463236119695</v>
       </c>
       <c r="D15">
-        <v>0.09598348117248889</v>
+        <v>0.1071212315059</v>
       </c>
       <c r="E15">
-        <v>0.03511600569200723</v>
+        <v>0.03913791307418002</v>
       </c>
       <c r="F15">
-        <v>1.287392721286366</v>
+        <v>0.9253605016823059</v>
       </c>
       <c r="G15">
-        <v>0.0008240067292882354</v>
+        <v>0.05485951425150404</v>
       </c>
       <c r="H15">
-        <v>0.1818188744765195</v>
+        <v>0.1789220055377143</v>
       </c>
       <c r="I15">
-        <v>0.008087943912828521</v>
+        <v>0.004616797470618828</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7689634596007409</v>
+        <v>0.5246715712229033</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2015916336839787</v>
       </c>
       <c r="M15">
-        <v>1.817200811932736</v>
+        <v>0.195199141950507</v>
       </c>
       <c r="N15">
-        <v>0.02589412526853963</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1976091249535159</v>
+        <v>1.653939104810831</v>
       </c>
       <c r="P15">
-        <v>1.212575793609496</v>
+        <v>0.03322621801587111</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1761912356239215</v>
+      </c>
+      <c r="R15">
+        <v>0.9840734098858137</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.477755543215238</v>
+        <v>1.314195504254542</v>
       </c>
       <c r="C16">
-        <v>0.3296900650543364</v>
+        <v>0.3625227390024293</v>
       </c>
       <c r="D16">
-        <v>0.09390524519989185</v>
+        <v>0.09746613106311486</v>
       </c>
       <c r="E16">
-        <v>0.0325636961570055</v>
+        <v>0.03848089227253482</v>
       </c>
       <c r="F16">
-        <v>1.24924686042489</v>
+        <v>0.9628381394915522</v>
       </c>
       <c r="G16">
-        <v>0.0008267239233787226</v>
+        <v>0.02792574246882928</v>
       </c>
       <c r="H16">
-        <v>0.1706586008089346</v>
+        <v>0.1669742507555725</v>
       </c>
       <c r="I16">
-        <v>0.01003978023635099</v>
+        <v>0.005484254861598536</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7603366886721332</v>
+        <v>0.5541618916848989</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2152451716172123</v>
       </c>
       <c r="M16">
-        <v>1.702238650622604</v>
+        <v>0.2025167189356836</v>
       </c>
       <c r="N16">
-        <v>0.02556713365473229</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1868079359229604</v>
+        <v>1.604048674569071</v>
       </c>
       <c r="P16">
-        <v>1.240206667191181</v>
+        <v>0.03386720948558697</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1703496835338072</v>
+      </c>
+      <c r="R16">
+        <v>1.025442813659629</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.450576891637951</v>
+        <v>1.298727768738388</v>
       </c>
       <c r="C17">
-        <v>0.309583939034809</v>
+        <v>0.3529516780712356</v>
       </c>
       <c r="D17">
-        <v>0.09025043683681844</v>
+        <v>0.09002868780979156</v>
       </c>
       <c r="E17">
-        <v>0.02672676476338154</v>
+        <v>0.03335395279226105</v>
       </c>
       <c r="F17">
-        <v>1.277566622753994</v>
+        <v>1.013763230843864</v>
       </c>
       <c r="G17">
-        <v>0.0008281773807471803</v>
+        <v>0.02277823735062245</v>
       </c>
       <c r="H17">
-        <v>0.1337563737087351</v>
+        <v>0.1296376744462009</v>
       </c>
       <c r="I17">
-        <v>0.01115736719431926</v>
+        <v>0.006009236886975522</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7905021189432873</v>
+        <v>0.591848028686087</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2309161802420441</v>
       </c>
       <c r="M17">
-        <v>1.651925152011728</v>
+        <v>0.2145300145005464</v>
       </c>
       <c r="N17">
-        <v>0.03441164368334881</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1961852751717679</v>
+        <v>1.579053378359191</v>
       </c>
       <c r="P17">
-        <v>1.288331528949278</v>
+        <v>0.04421008854365027</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1809284110970211</v>
+      </c>
+      <c r="R17">
+        <v>1.066160036884277</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.482721545587481</v>
+        <v>1.325264389175743</v>
       </c>
       <c r="C18">
-        <v>0.2900790061552811</v>
+        <v>0.3393548269957307</v>
       </c>
       <c r="D18">
-        <v>0.08537161250056968</v>
+        <v>0.08275408577743804</v>
       </c>
       <c r="E18">
-        <v>0.02031533832984067</v>
+        <v>0.02684124035307001</v>
       </c>
       <c r="F18">
-        <v>1.371375692363301</v>
+        <v>1.099958169775633</v>
       </c>
       <c r="G18">
-        <v>0.0008286303753870847</v>
+        <v>0.02159059548359288</v>
       </c>
       <c r="H18">
-        <v>0.08102653547928185</v>
+        <v>0.07682235065556853</v>
       </c>
       <c r="I18">
-        <v>0.01116927611193574</v>
+        <v>0.005824575480836813</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8627020726955479</v>
+        <v>0.6517975790998563</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2539935562516717</v>
       </c>
       <c r="M18">
-        <v>1.65204064371801</v>
+        <v>0.236117917540664</v>
       </c>
       <c r="N18">
-        <v>0.0599986074295451</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2257289131977949</v>
+        <v>1.585294869031827</v>
       </c>
       <c r="P18">
-        <v>1.369382836919868</v>
+        <v>0.0722859271603582</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2093769025360679</v>
+      </c>
+      <c r="R18">
+        <v>1.12145031971221</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.554693289661174</v>
+        <v>1.38089796028089</v>
       </c>
       <c r="C19">
-        <v>0.274459548412807</v>
+        <v>0.327513258244494</v>
       </c>
       <c r="D19">
-        <v>0.08108837891016307</v>
+        <v>0.07669589244909503</v>
       </c>
       <c r="E19">
-        <v>0.01827222901275249</v>
+        <v>0.0241314705369885</v>
       </c>
       <c r="F19">
-        <v>1.507510716464438</v>
+        <v>1.210138773571558</v>
       </c>
       <c r="G19">
-        <v>0.0008282207840079307</v>
+        <v>0.02079144268162381</v>
       </c>
       <c r="H19">
-        <v>0.0349947870413132</v>
+        <v>0.031055909868833</v>
       </c>
       <c r="I19">
-        <v>0.0108417646175365</v>
+        <v>0.005744263302839059</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9627227285408111</v>
+        <v>0.7269003723599781</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2818499919604776</v>
       </c>
       <c r="M19">
-        <v>1.689693414009412</v>
+        <v>0.2644918999279966</v>
       </c>
       <c r="N19">
-        <v>0.1093234684654192</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2712630057435383</v>
+        <v>1.618371099492578</v>
       </c>
       <c r="P19">
-        <v>1.477639283649445</v>
+        <v>0.1250085492705253</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2522489992796579</v>
+      </c>
+      <c r="R19">
+        <v>1.19075546662485</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.748269216260695</v>
+        <v>1.527427548221311</v>
       </c>
       <c r="C20">
-        <v>0.2669979570633529</v>
+        <v>0.3194329527443358</v>
       </c>
       <c r="D20">
-        <v>0.0777432254895043</v>
+        <v>0.0721225069485385</v>
       </c>
       <c r="E20">
-        <v>0.02763892855358474</v>
+        <v>0.03204876854896899</v>
       </c>
       <c r="F20">
-        <v>1.771495386428867</v>
+        <v>1.393182321692265</v>
       </c>
       <c r="G20">
-        <v>0.0008253652238262</v>
+        <v>0.02020795867506475</v>
       </c>
       <c r="H20">
-        <v>0.005913636194963878</v>
+        <v>0.003090223846548223</v>
       </c>
       <c r="I20">
-        <v>0.008623347652024549</v>
+        <v>0.004760991035152706</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.147067560267125</v>
+        <v>0.8464656431333637</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3222746054312751</v>
       </c>
       <c r="M20">
-        <v>1.837330914183553</v>
+        <v>0.3142121480592124</v>
       </c>
       <c r="N20">
-        <v>0.2218319774521404</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3615336461055563</v>
+        <v>1.732793822021506</v>
       </c>
       <c r="P20">
-        <v>1.664189143816941</v>
+        <v>0.2428573956398878</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3349655425098064</v>
+      </c>
+      <c r="R20">
+        <v>1.290138881565852</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.978173460822234</v>
+        <v>1.659245980242531</v>
       </c>
       <c r="C21">
-        <v>0.302991902901482</v>
+        <v>0.3143634665513559</v>
       </c>
       <c r="D21">
-        <v>0.0788919635825529</v>
+        <v>0.08155907270817409</v>
       </c>
       <c r="E21">
-        <v>0.03248414792077625</v>
+        <v>0.03802401962019175</v>
       </c>
       <c r="F21">
-        <v>1.929833213655584</v>
+        <v>1.343077617218327</v>
       </c>
       <c r="G21">
-        <v>0.0008200534057020154</v>
+        <v>0.07977680563671186</v>
       </c>
       <c r="H21">
-        <v>0.003164247446016288</v>
+        <v>0.001645286772118171</v>
       </c>
       <c r="I21">
-        <v>0.005527589142016787</v>
+        <v>0.003590332958584241</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.226905057701373</v>
+        <v>0.8009772871205172</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2960434728536327</v>
       </c>
       <c r="M21">
-        <v>2.079198189726242</v>
+        <v>0.3084377347539302</v>
       </c>
       <c r="N21">
-        <v>0.2585782123852596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4127610033399023</v>
+        <v>1.832034729967575</v>
       </c>
       <c r="P21">
-        <v>1.677947405760378</v>
+        <v>0.2765629528135918</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3702493419326487</v>
+      </c>
+      <c r="R21">
+        <v>1.179549127076776</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.126828446006812</v>
+        <v>1.739282742824287</v>
       </c>
       <c r="C22">
-        <v>0.3269824462395832</v>
+        <v>0.3094446321216822</v>
       </c>
       <c r="D22">
-        <v>0.07966770802884326</v>
+        <v>0.08932230032078081</v>
       </c>
       <c r="E22">
-        <v>0.03503475892849472</v>
+        <v>0.04176377059339309</v>
       </c>
       <c r="F22">
-        <v>2.029003872363006</v>
+        <v>1.298679280300476</v>
       </c>
       <c r="G22">
-        <v>0.0008166848146932902</v>
+        <v>0.1673720077359491</v>
       </c>
       <c r="H22">
-        <v>0.001942923645963601</v>
+        <v>0.001032320081200133</v>
       </c>
       <c r="I22">
-        <v>0.003736359446199877</v>
+        <v>0.002662576837224151</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.275591718004222</v>
+        <v>0.7648528599783475</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2775899699339561</v>
       </c>
       <c r="M22">
-        <v>2.23641658812906</v>
+        <v>0.3016292226558548</v>
       </c>
       <c r="N22">
-        <v>0.2764669859888755</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4428958614569964</v>
+        <v>1.887320690723925</v>
       </c>
       <c r="P22">
-        <v>1.682364650112817</v>
+        <v>0.2918632827369123</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.389199869724429</v>
+      </c>
+      <c r="R22">
+        <v>1.106626369080359</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.051514457122607</v>
+        <v>1.707280398800009</v>
       </c>
       <c r="C23">
-        <v>0.3131886112831239</v>
+        <v>0.3160376919614976</v>
       </c>
       <c r="D23">
-        <v>0.07920963469091902</v>
+        <v>0.08402866392037112</v>
       </c>
       <c r="E23">
-        <v>0.03372121634161296</v>
+        <v>0.03949663917153323</v>
       </c>
       <c r="F23">
-        <v>1.981307592803148</v>
+        <v>1.344729466834153</v>
       </c>
       <c r="G23">
-        <v>0.0008184497862838665</v>
+        <v>0.1020891090682454</v>
       </c>
       <c r="H23">
-        <v>0.002545811030522538</v>
+        <v>0.001318848628461211</v>
       </c>
       <c r="I23">
-        <v>0.004299709937446217</v>
+        <v>0.00272376983444822</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.253865115985676</v>
+        <v>0.7973456849344487</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2918800884303039</v>
       </c>
       <c r="M23">
-        <v>2.154225283662697</v>
+        <v>0.3106927567297006</v>
       </c>
       <c r="N23">
-        <v>0.2667056593721924</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4272894148766184</v>
+        <v>1.873283814157134</v>
       </c>
       <c r="P23">
-        <v>1.684784398564247</v>
+        <v>0.2839817658055068</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3808226148107536</v>
+      </c>
+      <c r="R23">
+        <v>1.157277975966473</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.760625736008848</v>
+        <v>1.537818009364145</v>
       </c>
       <c r="C24">
-        <v>0.2636346565869303</v>
+        <v>0.316585469645247</v>
       </c>
       <c r="D24">
-        <v>0.07747816054002676</v>
+        <v>0.0714074295477154</v>
       </c>
       <c r="E24">
-        <v>0.02878928572153239</v>
+        <v>0.0330815662803321</v>
       </c>
       <c r="F24">
-        <v>1.794593309722586</v>
+        <v>1.413080483389948</v>
       </c>
       <c r="G24">
-        <v>0.0008253059239586502</v>
+        <v>0.01993209844911359</v>
       </c>
       <c r="H24">
-        <v>0.005656853603417944</v>
+        <v>0.002876630685966663</v>
       </c>
       <c r="I24">
-        <v>0.008022122791778052</v>
+        <v>0.00410090571946764</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.165494703407319</v>
+        <v>0.8611671533535343</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3277654365867377</v>
       </c>
       <c r="M24">
-        <v>1.842125919053359</v>
+        <v>0.3197265025741842</v>
       </c>
       <c r="N24">
-        <v>0.2302842375029002</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3675973965439496</v>
+        <v>1.73769816440435</v>
       </c>
       <c r="P24">
-        <v>1.687042016548602</v>
+        <v>0.2517723092608435</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3407170037082423</v>
+      </c>
+      <c r="R24">
+        <v>1.306277975706109</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.448580661276736</v>
+        <v>1.27487603487711</v>
       </c>
       <c r="C25">
-        <v>0.2122272188294829</v>
+        <v>0.2599712578108893</v>
       </c>
       <c r="D25">
-        <v>0.07544905204552776</v>
+        <v>0.06582759757917955</v>
       </c>
       <c r="E25">
-        <v>0.02369139423284317</v>
+        <v>0.02902482183776378</v>
       </c>
       <c r="F25">
-        <v>1.598237591465519</v>
+        <v>1.276635898726639</v>
       </c>
       <c r="G25">
-        <v>0.0008329911516538597</v>
+        <v>0.02744536660835406</v>
       </c>
       <c r="H25">
-        <v>0.01059405876791864</v>
+        <v>0.005802155773275919</v>
       </c>
       <c r="I25">
-        <v>0.01410508764205431</v>
+        <v>0.007098247128191737</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.071974273514094</v>
+        <v>0.8107753574477528</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3247815530658613</v>
       </c>
       <c r="M25">
-        <v>1.509262206404941</v>
+        <v>0.2836935300579952</v>
       </c>
       <c r="N25">
-        <v>0.1913483902825348</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3035598294791697</v>
+        <v>1.436341335204133</v>
       </c>
       <c r="P25">
-        <v>1.691352157655956</v>
+        <v>0.2117637465080264</v>
       </c>
       <c r="Q25">
+        <v>0.2831163692383072</v>
+      </c>
+      <c r="R25">
+        <v>1.345729545055015</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
